--- a/config/excel/hero.xlsx
+++ b/config/excel/hero.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14175"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,10 +261,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -411,12 +426,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -731,58 +758,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -794,81 +815,96 @@
     <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1406,8 +1442,8 @@
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1428,50 +1464,50 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="2:15">
+    <row r="2" spans="1:15">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -1490,7 +1526,7 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I2" t="s">
@@ -1502,16 +1538,16 @@
       <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1519,50 +1555,50 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="1:15">
       <c r="B4">
         <v>1001</v>
       </c>
@@ -1594,7 +1630,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="1:15">
       <c r="B5">
         <v>1002</v>
       </c>
@@ -1626,7 +1662,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="1:15">
       <c r="B6">
         <v>1003</v>
       </c>
@@ -1658,20 +1694,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="2:11">
+    <row r="7" ht="17.25" spans="1:15">
       <c r="B7">
         <v>1004</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>4</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G7">
@@ -1690,7 +1726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="1:15">
       <c r="B8">
         <v>1005</v>
       </c>
@@ -1734,7 +1770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="1:15">
       <c r="B9">
         <v>1006</v>
       </c>
@@ -1778,7 +1814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="1:15">
       <c r="B10">
         <v>1007</v>
       </c>
@@ -1822,7 +1858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="1:15">
       <c r="B11">
         <v>1008</v>
       </c>
@@ -1866,7 +1902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="1:15">
       <c r="B12">
         <v>1009</v>
       </c>
@@ -1910,7 +1946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="1:15">
       <c r="B13">
         <v>1010</v>
       </c>
@@ -1954,7 +1990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="1:15">
       <c r="B14">
         <v>1011</v>
       </c>
@@ -1998,7 +2034,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="1:15">
       <c r="B15">
         <v>1012</v>
       </c>
@@ -2043,7 +2079,7 @@
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:15">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B16">
